--- a/Defects.xlsx
+++ b/Defects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smuhalifax-my.sharepoint.com/personal/suchandra_ghosh_smu_ca/Documents/GitHub/SoftwareDevelopmentProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC10484F495B559E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43601EEA-2E14-41CA-983E-1554A394EA07}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABDACC10484F495B559E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05474FB-CD8A-416C-A113-EE7E005579BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Defect ID</t>
   </si>
@@ -70,13 +70,64 @@
   </si>
   <si>
     <t>Coments</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>Rate is not visible while choosing a sport</t>
+  </si>
+  <si>
+    <t>Reservation Details page - 'Total Cost' label should be 'cost per person'</t>
+  </si>
+  <si>
+    <t>D007</t>
+  </si>
+  <si>
+    <t>D008</t>
+  </si>
+  <si>
+    <t>D009</t>
+  </si>
+  <si>
+    <t>D010</t>
+  </si>
+  <si>
+    <t>On Payment page, add a message that your reservation is confirmed, you can pay online or later at sports center office.</t>
+  </si>
+  <si>
+    <t>On clicking Pay now in View Reservations, total amount getting multiplied by numbe of people.</t>
+  </si>
+  <si>
+    <t>Payment page accepts expired cards</t>
+  </si>
+  <si>
+    <t>After manking payment using 'Pay now' option under 'View Reservation', Original row remains in the table in addition to a new row with 'Paid status'</t>
+  </si>
+  <si>
+    <t>D011</t>
+  </si>
+  <si>
+    <t>D012</t>
+  </si>
+  <si>
+    <t>D013</t>
+  </si>
+  <si>
+    <t>D014</t>
+  </si>
+  <si>
+    <t>D015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +135,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,13 +168,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -125,15 +199,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F9A6AB3-93FF-406F-84A6-0591A072AC1D}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{7F9A6AB3-93FF-406F-84A6-0591A072AC1D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F9A6AB3-93FF-406F-84A6-0591A072AC1D}" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0">
+  <autoFilter ref="A1:D16" xr:uid="{7F9A6AB3-93FF-406F-84A6-0591A072AC1D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E8813957-595F-4852-920E-0B442A085FD5}" name="Defect ID"/>
-    <tableColumn id="2" xr3:uid="{8478A197-6634-49B5-ABF1-E17E912B83E7}" name="Description"/>
+    <tableColumn id="2" xr3:uid="{8478A197-6634-49B5-ABF1-E17E912B83E7}" name="Description" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DF9D4D6D-E1D2-4F3A-A162-DDA089943B6B}" name="Status"/>
     <tableColumn id="4" xr3:uid="{7C6E0ADC-7467-4354-9831-8064199AFDCA}" name="Coments"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -400,16 +474,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -417,7 +491,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -431,7 +505,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -442,7 +516,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -450,39 +524,128 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">

--- a/Defects.xlsx
+++ b/Defects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smuhalifax-my.sharepoint.com/personal/suchandra_ghosh_smu_ca/Documents/GitHub/SoftwareDevelopmentProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karnj\Documents\GitHub\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABDACC10484F495B559E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05474FB-CD8A-416C-A113-EE7E005579BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD276A86-2D0C-447F-9089-1FE1D17D9F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,17 +477,17 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.265625" customWidth="1"/>
+    <col min="2" max="2" width="68.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,29 +501,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -547,40 +547,40 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -591,18 +591,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -613,33 +613,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>31</v>
       </c>

--- a/Defects.xlsx
+++ b/Defects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karnj\Documents\GitHub\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD276A86-2D0C-447F-9089-1FE1D17D9F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3535EBB1-A068-485B-A8F7-078BED2EBEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -580,15 +580,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">

--- a/Defects.xlsx
+++ b/Defects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karnj\Documents\GitHub\SoftwareProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smuhalifax-my.sharepoint.com/personal/suchandra_ghosh_smu_ca/Documents/GitHub/SoftwareDevelopmentProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3535EBB1-A068-485B-A8F7-078BED2EBEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3535EBB1-A068-485B-A8F7-078BED2EBEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA28A4FE-276E-4D29-A351-1AB0965F6D2A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Defect ID</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>D015</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Working as per requirement specified in assignment.</t>
+  </si>
+  <si>
+    <t>On clicking FAQ, exception is occuring.</t>
   </si>
 </sst>
 </file>
@@ -477,17 +486,17 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.265625" customWidth="1"/>
-    <col min="2" max="2" width="68.86328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="57.86328125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -512,7 +521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -523,7 +532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -535,7 +544,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -547,7 +556,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -558,7 +567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -569,7 +578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -580,7 +589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -591,7 +600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -602,7 +611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -610,10 +619,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -624,22 +636,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>

--- a/Defects.xlsx
+++ b/Defects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smuhalifax-my.sharepoint.com/personal/suchandra_ghosh_smu_ca/Documents/GitHub/SoftwareDevelopmentProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karnj\Documents\GitHub\SoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3535EBB1-A068-485B-A8F7-078BED2EBEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA28A4FE-276E-4D29-A351-1AB0965F6D2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3535EBB1-A068-485B-A8F7-078BED2EBEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Defect ID</t>
   </si>
@@ -121,15 +121,6 @@
   </si>
   <si>
     <t>D015</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Working as per requirement specified in assignment.</t>
-  </si>
-  <si>
-    <t>On clicking FAQ, exception is occuring.</t>
   </si>
 </sst>
 </file>
@@ -486,17 +477,17 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.265625" customWidth="1"/>
+    <col min="2" max="2" width="68.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -521,7 +512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -532,7 +523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -544,7 +535,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -556,7 +547,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -567,7 +558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -578,7 +569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -589,7 +580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -600,7 +591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -611,7 +602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -619,13 +610,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -636,28 +624,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>31</v>
       </c>
